--- a/FYP/reading/SAT301-FYP-ReadingNotes-S1Week2.xlsx
+++ b/FYP/reading/SAT301-FYP-ReadingNotes-S1Week2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinbouei/Documents/GitHub/undergraduate-XJTLU/FYP/reading/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4046A0-44EA-7147-80D0-0810E9F17A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4074AB-CA36-424F-A417-51C6B65386B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="142" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
